--- a/docs/interface_images.xlsx
+++ b/docs/interface_images.xlsx
@@ -498,9 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="C658" sqref="C658"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11408,7 +11406,7 @@
         <v>15</v>
       </c>
       <c r="C420" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D420">
         <v>26447291</v>
@@ -11434,7 +11432,7 @@
         <v>15</v>
       </c>
       <c r="C421" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D421">
         <v>26449012</v>
@@ -11460,7 +11458,7 @@
         <v>15</v>
       </c>
       <c r="C422" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D422">
         <v>26450544</v>
@@ -11486,7 +11484,7 @@
         <v>15</v>
       </c>
       <c r="C423" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D423">
         <v>26451815</v>
@@ -11512,7 +11510,7 @@
         <v>15</v>
       </c>
       <c r="C424" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D424">
         <v>26453274</v>
@@ -11538,7 +11536,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D425">
         <v>26454916</v>
@@ -11564,7 +11562,7 @@
         <v>15</v>
       </c>
       <c r="C426" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D426">
         <v>26456667</v>
@@ -11590,7 +11588,7 @@
         <v>15</v>
       </c>
       <c r="C427" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D427">
         <v>26458053</v>
@@ -11616,7 +11614,7 @@
         <v>15</v>
       </c>
       <c r="C428" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D428">
         <v>26459754</v>
@@ -11642,7 +11640,7 @@
         <v>15</v>
       </c>
       <c r="C429" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D429">
         <v>26461179</v>
@@ -11668,7 +11666,7 @@
         <v>15</v>
       </c>
       <c r="C430" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D430">
         <v>26462648</v>
@@ -11694,7 +11692,7 @@
         <v>15</v>
       </c>
       <c r="C431" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D431">
         <v>26464172</v>
@@ -11720,7 +11718,7 @@
         <v>15</v>
       </c>
       <c r="C432" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D432">
         <v>26465385</v>
@@ -11746,7 +11744,7 @@
         <v>15</v>
       </c>
       <c r="C433" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D433">
         <v>26467009</v>
@@ -11772,7 +11770,7 @@
         <v>15</v>
       </c>
       <c r="C434" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D434">
         <v>26468574</v>
@@ -11798,7 +11796,7 @@
         <v>15</v>
       </c>
       <c r="C435" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D435">
         <v>26470267</v>
@@ -11824,7 +11822,7 @@
         <v>15</v>
       </c>
       <c r="C436" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D436">
         <v>26471893</v>
@@ -11850,7 +11848,7 @@
         <v>15</v>
       </c>
       <c r="C437" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D437">
         <v>26473383</v>
@@ -11876,7 +11874,7 @@
         <v>15</v>
       </c>
       <c r="C438" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D438">
         <v>26475105</v>
@@ -11902,7 +11900,7 @@
         <v>15</v>
       </c>
       <c r="C439" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D439">
         <v>26476502</v>
@@ -11928,7 +11926,7 @@
         <v>15</v>
       </c>
       <c r="C440" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D440">
         <v>26478066</v>
@@ -11954,7 +11952,7 @@
         <v>15</v>
       </c>
       <c r="C441" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D441">
         <v>26479621</v>
@@ -11980,7 +11978,7 @@
         <v>15</v>
       </c>
       <c r="C442" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D442">
         <v>26481237</v>
@@ -12006,7 +12004,7 @@
         <v>15</v>
       </c>
       <c r="C443" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D443">
         <v>26482874</v>
@@ -12032,7 +12030,7 @@
         <v>15</v>
       </c>
       <c r="C444" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D444">
         <v>26484365</v>
@@ -12058,7 +12056,7 @@
         <v>15</v>
       </c>
       <c r="C445" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D445">
         <v>26486103</v>
@@ -12084,7 +12082,7 @@
         <v>15</v>
       </c>
       <c r="C446" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D446">
         <v>26487515</v>
@@ -12110,7 +12108,7 @@
         <v>15</v>
       </c>
       <c r="C447" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D447">
         <v>26488981</v>
@@ -12136,7 +12134,7 @@
         <v>15</v>
       </c>
       <c r="C448" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D448">
         <v>26490420</v>
@@ -12162,7 +12160,7 @@
         <v>15</v>
       </c>
       <c r="C449" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D449">
         <v>26491738</v>
@@ -12188,7 +12186,7 @@
         <v>15</v>
       </c>
       <c r="C450" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D450">
         <v>26493328</v>
@@ -12214,7 +12212,7 @@
         <v>15</v>
       </c>
       <c r="C451" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D451">
         <v>26494592</v>
@@ -12240,7 +12238,7 @@
         <v>15</v>
       </c>
       <c r="C452" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D452">
         <v>26496168</v>
@@ -12266,7 +12264,7 @@
         <v>15</v>
       </c>
       <c r="C453" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D453">
         <v>26497649</v>
@@ -12292,7 +12290,7 @@
         <v>15</v>
       </c>
       <c r="C454" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D454">
         <v>26499360</v>
@@ -12318,7 +12316,7 @@
         <v>15</v>
       </c>
       <c r="C455" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D455">
         <v>26500649</v>
@@ -12344,7 +12342,7 @@
         <v>15</v>
       </c>
       <c r="C456" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D456">
         <v>26501467</v>
@@ -12370,7 +12368,7 @@
         <v>15</v>
       </c>
       <c r="C457" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D457">
         <v>26503105</v>
@@ -12396,7 +12394,7 @@
         <v>15</v>
       </c>
       <c r="C458" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D458">
         <v>26504893</v>
@@ -12422,7 +12420,7 @@
         <v>15</v>
       </c>
       <c r="C459" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D459">
         <v>26506646</v>
@@ -12448,7 +12446,7 @@
         <v>15</v>
       </c>
       <c r="C460" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D460">
         <v>26508466</v>
@@ -12474,7 +12472,7 @@
         <v>15</v>
       </c>
       <c r="C461" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D461">
         <v>26510253</v>
@@ -12500,7 +12498,7 @@
         <v>15</v>
       </c>
       <c r="C462" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D462">
         <v>26511878</v>
@@ -12526,7 +12524,7 @@
         <v>15</v>
       </c>
       <c r="C463" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D463">
         <v>26513166</v>
@@ -12552,7 +12550,7 @@
         <v>15</v>
       </c>
       <c r="C464" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D464">
         <v>26514658</v>
@@ -12578,7 +12576,7 @@
         <v>15</v>
       </c>
       <c r="C465" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D465">
         <v>26516448</v>
@@ -12604,7 +12602,7 @@
         <v>15</v>
       </c>
       <c r="C466" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D466">
         <v>26518079</v>
@@ -12630,7 +12628,7 @@
         <v>15</v>
       </c>
       <c r="C467" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D467">
         <v>26519674</v>
@@ -12656,7 +12654,7 @@
         <v>15</v>
       </c>
       <c r="C468" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D468">
         <v>26521431</v>
@@ -12682,7 +12680,7 @@
         <v>15</v>
       </c>
       <c r="C469" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D469">
         <v>26523073</v>
@@ -12708,7 +12706,7 @@
         <v>15</v>
       </c>
       <c r="C470" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D470">
         <v>26524428</v>
@@ -12734,7 +12732,7 @@
         <v>15</v>
       </c>
       <c r="C471" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D471">
         <v>26526151</v>
@@ -12760,7 +12758,7 @@
         <v>15</v>
       </c>
       <c r="C472" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D472">
         <v>26527643</v>
@@ -12786,7 +12784,7 @@
         <v>15</v>
       </c>
       <c r="C473" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D473">
         <v>26529519</v>
@@ -12812,7 +12810,7 @@
         <v>15</v>
       </c>
       <c r="C474" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D474">
         <v>26531345</v>
@@ -12838,7 +12836,7 @@
         <v>15</v>
       </c>
       <c r="C475" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D475">
         <v>26533133</v>
@@ -12864,7 +12862,7 @@
         <v>15</v>
       </c>
       <c r="C476" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D476">
         <v>26534989</v>
@@ -12890,7 +12888,7 @@
         <v>15</v>
       </c>
       <c r="C477" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D477">
         <v>26536579</v>
@@ -12916,7 +12914,7 @@
         <v>15</v>
       </c>
       <c r="C478" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D478">
         <v>26538308</v>
@@ -12942,7 +12940,7 @@
         <v>15</v>
       </c>
       <c r="C479" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D479">
         <v>26540179</v>
@@ -12968,7 +12966,7 @@
         <v>15</v>
       </c>
       <c r="C480" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D480">
         <v>26542099</v>
@@ -12994,7 +12992,7 @@
         <v>15</v>
       </c>
       <c r="C481" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D481">
         <v>26543845</v>
@@ -13020,7 +13018,7 @@
         <v>15</v>
       </c>
       <c r="C482" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D482">
         <v>26545564</v>
@@ -13046,7 +13044,7 @@
         <v>15</v>
       </c>
       <c r="C483" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D483">
         <v>26547300</v>
@@ -13072,7 +13070,7 @@
         <v>15</v>
       </c>
       <c r="C484" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D484">
         <v>26548907</v>
@@ -13098,7 +13096,7 @@
         <v>15</v>
       </c>
       <c r="C485" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D485">
         <v>26550615</v>
@@ -13124,7 +13122,7 @@
         <v>15</v>
       </c>
       <c r="C486" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D486">
         <v>26552344</v>
@@ -13150,7 +13148,7 @@
         <v>15</v>
       </c>
       <c r="C487" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D487">
         <v>26554120</v>
@@ -13176,7 +13174,7 @@
         <v>15</v>
       </c>
       <c r="C488" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D488">
         <v>26555762</v>
@@ -13202,7 +13200,7 @@
         <v>15</v>
       </c>
       <c r="C489" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D489">
         <v>26557670</v>
@@ -13228,7 +13226,7 @@
         <v>15</v>
       </c>
       <c r="C490" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D490">
         <v>26559483</v>
@@ -13254,7 +13252,7 @@
         <v>15</v>
       </c>
       <c r="C491" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D491">
         <v>26560917</v>
@@ -13280,7 +13278,7 @@
         <v>15</v>
       </c>
       <c r="C492" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D492">
         <v>26562790</v>
@@ -13306,7 +13304,7 @@
         <v>15</v>
       </c>
       <c r="C493" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D493">
         <v>26564385</v>
@@ -13332,7 +13330,7 @@
         <v>15</v>
       </c>
       <c r="C494" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D494">
         <v>26566264</v>
@@ -13358,7 +13356,7 @@
         <v>15</v>
       </c>
       <c r="C495" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D495">
         <v>26567862</v>
@@ -13384,7 +13382,7 @@
         <v>15</v>
       </c>
       <c r="C496" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D496">
         <v>26569239</v>
@@ -13410,7 +13408,7 @@
         <v>15</v>
       </c>
       <c r="C497" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D497">
         <v>26571077</v>
@@ -13436,7 +13434,7 @@
         <v>15</v>
       </c>
       <c r="C498" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D498">
         <v>26572260</v>
@@ -13462,7 +13460,7 @@
         <v>15</v>
       </c>
       <c r="C499" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D499">
         <v>26574079</v>
@@ -13488,7 +13486,7 @@
         <v>15</v>
       </c>
       <c r="C500" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D500">
         <v>26575898</v>
@@ -13514,7 +13512,7 @@
         <v>15</v>
       </c>
       <c r="C501" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D501">
         <v>26577717</v>
@@ -13540,7 +13538,7 @@
         <v>15</v>
       </c>
       <c r="C502" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D502">
         <v>26579192</v>
@@ -13566,7 +13564,7 @@
         <v>15</v>
       </c>
       <c r="C503" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D503">
         <v>26580667</v>
@@ -13592,7 +13590,7 @@
         <v>15</v>
       </c>
       <c r="C504" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D504">
         <v>26582142</v>
@@ -13618,7 +13616,7 @@
         <v>15</v>
       </c>
       <c r="C505" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D505">
         <v>26583617</v>
@@ -13644,7 +13642,7 @@
         <v>15</v>
       </c>
       <c r="C506" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D506">
         <v>26585409</v>
@@ -13670,7 +13668,7 @@
         <v>15</v>
       </c>
       <c r="C507" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D507">
         <v>26587201</v>
@@ -13696,7 +13694,7 @@
         <v>15</v>
       </c>
       <c r="C508" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D508">
         <v>26588993</v>
@@ -13722,7 +13720,7 @@
         <v>15</v>
       </c>
       <c r="C509" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D509">
         <v>26590607</v>
@@ -13748,7 +13746,7 @@
         <v>15</v>
       </c>
       <c r="C510" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D510">
         <v>26592221</v>
@@ -13774,7 +13772,7 @@
         <v>15</v>
       </c>
       <c r="C511" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D511">
         <v>26593835</v>
@@ -13800,7 +13798,7 @@
         <v>15</v>
       </c>
       <c r="C512" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D512">
         <v>26595213</v>
@@ -13826,7 +13824,7 @@
         <v>15</v>
       </c>
       <c r="C513" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D513">
         <v>26596591</v>
@@ -13852,7 +13850,7 @@
         <v>15</v>
       </c>
       <c r="C514" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D514">
         <v>26597969</v>
@@ -13878,7 +13876,7 @@
         <v>15</v>
       </c>
       <c r="C515" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D515">
         <v>26599626</v>
@@ -13904,7 +13902,7 @@
         <v>15</v>
       </c>
       <c r="C516" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D516">
         <v>26601283</v>
@@ -13930,7 +13928,7 @@
         <v>15</v>
       </c>
       <c r="C517" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D517">
         <v>26602940</v>
@@ -13956,7 +13954,7 @@
         <v>15</v>
       </c>
       <c r="C518" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D518">
         <v>26604597</v>
@@ -13982,7 +13980,7 @@
         <v>15</v>
       </c>
       <c r="C519" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D519">
         <v>26606261</v>
@@ -14008,7 +14006,7 @@
         <v>15</v>
       </c>
       <c r="C520" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D520">
         <v>26607925</v>
@@ -14034,7 +14032,7 @@
         <v>15</v>
       </c>
       <c r="C521" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D521">
         <v>26609589</v>
@@ -14060,7 +14058,7 @@
         <v>15</v>
       </c>
       <c r="C522" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D522">
         <v>26611253</v>
@@ -14086,7 +14084,7 @@
         <v>15</v>
       </c>
       <c r="C523" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D523">
         <v>26612875</v>
@@ -14112,7 +14110,7 @@
         <v>15</v>
       </c>
       <c r="C524" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D524">
         <v>26614497</v>
@@ -14138,7 +14136,7 @@
         <v>15</v>
       </c>
       <c r="C525" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D525">
         <v>26616119</v>
@@ -14164,7 +14162,7 @@
         <v>15</v>
       </c>
       <c r="C526" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D526">
         <v>26617741</v>
@@ -14190,7 +14188,7 @@
         <v>15</v>
       </c>
       <c r="C527" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D527">
         <v>26619363</v>
@@ -14216,7 +14214,7 @@
         <v>15</v>
       </c>
       <c r="C528" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D528">
         <v>26620985</v>
@@ -14242,7 +14240,7 @@
         <v>15</v>
       </c>
       <c r="C529" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D529">
         <v>26622166</v>
@@ -14268,7 +14266,7 @@
         <v>15</v>
       </c>
       <c r="C530" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D530">
         <v>26623347</v>
@@ -14294,7 +14292,7 @@
         <v>16</v>
       </c>
       <c r="C531" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D531">
         <v>26624528</v>
@@ -14320,7 +14318,7 @@
         <v>16</v>
       </c>
       <c r="C532" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D532">
         <v>26625718</v>
@@ -14346,7 +14344,7 @@
         <v>16</v>
       </c>
       <c r="C533" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D533">
         <v>26626911</v>
@@ -14372,7 +14370,7 @@
         <v>16</v>
       </c>
       <c r="C534" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D534">
         <v>26627954</v>
@@ -14398,7 +14396,7 @@
         <v>16</v>
       </c>
       <c r="C535" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D535">
         <v>26628970</v>
@@ -14424,7 +14422,7 @@
         <v>16</v>
       </c>
       <c r="C536" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D536">
         <v>26629970</v>
@@ -14450,7 +14448,7 @@
         <v>16</v>
       </c>
       <c r="C537" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D537">
         <v>26630936</v>
@@ -14476,7 +14474,7 @@
         <v>16</v>
       </c>
       <c r="C538" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D538">
         <v>26631941</v>
@@ -14502,7 +14500,7 @@
         <v>16</v>
       </c>
       <c r="C539" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D539">
         <v>26632917</v>
@@ -14528,7 +14526,7 @@
         <v>16</v>
       </c>
       <c r="C540" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D540">
         <v>26634044</v>
@@ -14554,7 +14552,7 @@
         <v>16</v>
       </c>
       <c r="C541" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D541">
         <v>26635168</v>
@@ -14580,7 +14578,7 @@
         <v>16</v>
       </c>
       <c r="C542" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D542">
         <v>26636269</v>
@@ -14606,7 +14604,7 @@
         <v>16</v>
       </c>
       <c r="C543" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D543">
         <v>26637344</v>
@@ -14632,7 +14630,7 @@
         <v>16</v>
       </c>
       <c r="C544" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D544">
         <v>26638303</v>
@@ -14658,7 +14656,7 @@
         <v>16</v>
       </c>
       <c r="C545" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D545">
         <v>26639253</v>
@@ -14684,7 +14682,7 @@
         <v>16</v>
       </c>
       <c r="C546" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D546">
         <v>26640320</v>
@@ -14710,7 +14708,7 @@
         <v>16</v>
       </c>
       <c r="C547" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D547">
         <v>26641365</v>
@@ -14736,7 +14734,7 @@
         <v>16</v>
       </c>
       <c r="C548" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D548">
         <v>26642540</v>
@@ -14762,7 +14760,7 @@
         <v>16</v>
       </c>
       <c r="C549" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D549">
         <v>26643698</v>
@@ -14788,7 +14786,7 @@
         <v>16</v>
       </c>
       <c r="C550" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D550">
         <v>26644653</v>
@@ -14814,7 +14812,7 @@
         <v>16</v>
       </c>
       <c r="C551" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D551">
         <v>26645570</v>
@@ -14840,7 +14838,7 @@
         <v>16</v>
       </c>
       <c r="C552" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D552">
         <v>26646528</v>
@@ -14866,7 +14864,7 @@
         <v>16</v>
       </c>
       <c r="C553" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D553">
         <v>26647486</v>
@@ -14892,7 +14890,7 @@
         <v>16</v>
       </c>
       <c r="C554" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D554">
         <v>26648469</v>
@@ -14918,7 +14916,7 @@
         <v>16</v>
       </c>
       <c r="C555" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D555">
         <v>26649399</v>
@@ -14944,7 +14942,7 @@
         <v>16</v>
       </c>
       <c r="C556" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D556">
         <v>26650381</v>
@@ -14970,7 +14968,7 @@
         <v>16</v>
       </c>
       <c r="C557" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D557">
         <v>26651344</v>
@@ -14996,7 +14994,7 @@
         <v>16</v>
       </c>
       <c r="C558" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D558">
         <v>26652330</v>
@@ -15022,7 +15020,7 @@
         <v>16</v>
       </c>
       <c r="C559" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D559">
         <v>26653315</v>
@@ -15048,7 +15046,7 @@
         <v>16</v>
       </c>
       <c r="C560" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D560">
         <v>26654377</v>
@@ -15074,7 +15072,7 @@
         <v>16</v>
       </c>
       <c r="C561" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D561">
         <v>26655413</v>
@@ -15100,7 +15098,7 @@
         <v>16</v>
       </c>
       <c r="C562" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D562">
         <v>26656462</v>
@@ -15126,7 +15124,7 @@
         <v>16</v>
       </c>
       <c r="C563" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D563">
         <v>26657496</v>
@@ -15152,7 +15150,7 @@
         <v>16</v>
       </c>
       <c r="C564" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D564">
         <v>26658673</v>
@@ -15178,7 +15176,7 @@
         <v>16</v>
       </c>
       <c r="C565" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D565">
         <v>26659851</v>
@@ -15204,7 +15202,7 @@
         <v>16</v>
       </c>
       <c r="C566" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D566">
         <v>26660825</v>
@@ -15230,7 +15228,7 @@
         <v>16</v>
       </c>
       <c r="C567" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D567">
         <v>26661778</v>
@@ -15256,7 +15254,7 @@
         <v>16</v>
       </c>
       <c r="C568" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D568">
         <v>26662848</v>
@@ -15282,7 +15280,7 @@
         <v>16</v>
       </c>
       <c r="C569" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D569">
         <v>26663909</v>
@@ -15308,7 +15306,7 @@
         <v>16</v>
       </c>
       <c r="C570" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D570">
         <v>26664966</v>
@@ -15334,7 +15332,7 @@
         <v>16</v>
       </c>
       <c r="C571" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D571">
         <v>26666030</v>
@@ -15360,7 +15358,7 @@
         <v>16</v>
       </c>
       <c r="C572" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D572">
         <v>26666945</v>
@@ -15386,7 +15384,7 @@
         <v>16</v>
       </c>
       <c r="C573" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D573">
         <v>26667865</v>
@@ -15412,7 +15410,7 @@
         <v>16</v>
       </c>
       <c r="C574" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D574">
         <v>26668885</v>
@@ -15438,7 +15436,7 @@
         <v>16</v>
       </c>
       <c r="C575" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D575">
         <v>26669898</v>
@@ -15464,7 +15462,7 @@
         <v>16</v>
       </c>
       <c r="C576" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D576">
         <v>26670876</v>
@@ -15490,7 +15488,7 @@
         <v>16</v>
       </c>
       <c r="C577" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D577">
         <v>26671857</v>
@@ -15516,7 +15514,7 @@
         <v>16</v>
       </c>
       <c r="C578" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D578">
         <v>26672777</v>
@@ -15542,7 +15540,7 @@
         <v>16</v>
       </c>
       <c r="C579" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D579">
         <v>26673700</v>
@@ -15568,7 +15566,7 @@
         <v>16</v>
       </c>
       <c r="C580" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D580">
         <v>26674607</v>
@@ -15594,7 +15592,7 @@
         <v>16</v>
       </c>
       <c r="C581" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D581">
         <v>26675468</v>
@@ -15620,7 +15618,7 @@
         <v>16</v>
       </c>
       <c r="C582" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D582">
         <v>26676603</v>
@@ -15646,7 +15644,7 @@
         <v>16</v>
       </c>
       <c r="C583" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D583">
         <v>26677735</v>
@@ -15672,7 +15670,7 @@
         <v>16</v>
       </c>
       <c r="C584" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D584">
         <v>26678738</v>
@@ -15698,7 +15696,7 @@
         <v>16</v>
       </c>
       <c r="C585" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D585">
         <v>26679712</v>
@@ -15724,7 +15722,7 @@
         <v>16</v>
       </c>
       <c r="C586" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D586">
         <v>26680684</v>
@@ -15750,7 +15748,7 @@
         <v>16</v>
       </c>
       <c r="C587" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D587">
         <v>26681639</v>
@@ -15776,7 +15774,7 @@
         <v>16</v>
       </c>
       <c r="C588" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D588">
         <v>26682701</v>
@@ -15802,7 +15800,7 @@
         <v>16</v>
       </c>
       <c r="C589" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D589">
         <v>26683773</v>
@@ -15828,7 +15826,7 @@
         <v>16</v>
       </c>
       <c r="C590" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D590">
         <v>26684415</v>
@@ -15854,7 +15852,7 @@
         <v>16</v>
       </c>
       <c r="C591" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D591">
         <v>26685035</v>
@@ -15880,7 +15878,7 @@
         <v>16</v>
       </c>
       <c r="C592" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D592">
         <v>26686031</v>
@@ -15906,7 +15904,7 @@
         <v>16</v>
       </c>
       <c r="C593" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D593">
         <v>26687014</v>
@@ -15932,7 +15930,7 @@
         <v>16</v>
       </c>
       <c r="C594" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D594">
         <v>26688201</v>
@@ -15958,7 +15956,7 @@
         <v>16</v>
       </c>
       <c r="C595" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D595">
         <v>26689378</v>
@@ -15984,7 +15982,7 @@
         <v>16</v>
       </c>
       <c r="C596" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D596">
         <v>26690471</v>
@@ -16010,7 +16008,7 @@
         <v>16</v>
       </c>
       <c r="C597" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D597">
         <v>26691568</v>
@@ -16036,7 +16034,7 @@
         <v>16</v>
       </c>
       <c r="C598" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D598">
         <v>26692701</v>
@@ -16062,7 +16060,7 @@
         <v>16</v>
       </c>
       <c r="C599" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D599">
         <v>26693845</v>
@@ -16088,7 +16086,7 @@
         <v>16</v>
       </c>
       <c r="C600" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D600">
         <v>26694785</v>
@@ -16114,7 +16112,7 @@
         <v>16</v>
       </c>
       <c r="C601" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D601">
         <v>26695716</v>
@@ -16140,7 +16138,7 @@
         <v>16</v>
       </c>
       <c r="C602" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D602">
         <v>26696622</v>
@@ -16166,7 +16164,7 @@
         <v>16</v>
       </c>
       <c r="C603" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D603">
         <v>26697524</v>
@@ -16192,7 +16190,7 @@
         <v>16</v>
       </c>
       <c r="C604" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D604">
         <v>26698482</v>
@@ -16218,7 +16216,7 @@
         <v>16</v>
       </c>
       <c r="C605" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D605">
         <v>26699434</v>
@@ -16244,7 +16242,7 @@
         <v>16</v>
       </c>
       <c r="C606" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D606">
         <v>26700582</v>
@@ -16270,7 +16268,7 @@
         <v>16</v>
       </c>
       <c r="C607" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D607">
         <v>26701738</v>
@@ -16296,7 +16294,7 @@
         <v>16</v>
       </c>
       <c r="C608" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D608">
         <v>26702832</v>
@@ -16322,7 +16320,7 @@
         <v>16</v>
       </c>
       <c r="C609" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D609">
         <v>26703940</v>
@@ -16348,7 +16346,7 @@
         <v>16</v>
       </c>
       <c r="C610" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D610">
         <v>26705102</v>
@@ -16374,7 +16372,7 @@
         <v>16</v>
       </c>
       <c r="C611" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D611">
         <v>26706257</v>
@@ -16400,7 +16398,7 @@
         <v>16</v>
       </c>
       <c r="C612" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D612">
         <v>26707130</v>
@@ -16426,7 +16424,7 @@
         <v>16</v>
       </c>
       <c r="C613" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D613">
         <v>26707993</v>
@@ -16452,7 +16450,7 @@
         <v>16</v>
       </c>
       <c r="C614" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D614">
         <v>26708906</v>
@@ -16478,7 +16476,7 @@
         <v>16</v>
       </c>
       <c r="C615" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D615">
         <v>26709845</v>
@@ -16504,7 +16502,7 @@
         <v>16</v>
       </c>
       <c r="C616" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D616">
         <v>26711035</v>
@@ -16530,7 +16528,7 @@
         <v>16</v>
       </c>
       <c r="C617" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D617">
         <v>26712228</v>
@@ -16556,7 +16554,7 @@
         <v>16</v>
       </c>
       <c r="C618" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D618">
         <v>26713265</v>
@@ -16582,7 +16580,7 @@
         <v>16</v>
       </c>
       <c r="C619" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D619">
         <v>26714289</v>
@@ -16608,7 +16606,7 @@
         <v>16</v>
       </c>
       <c r="C620" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D620">
         <v>26715424</v>
@@ -16634,7 +16632,7 @@
         <v>16</v>
       </c>
       <c r="C621" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D621">
         <v>26716543</v>
@@ -16660,7 +16658,7 @@
         <v>16</v>
       </c>
       <c r="C622" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D622">
         <v>26717666</v>
@@ -16686,7 +16684,7 @@
         <v>16</v>
       </c>
       <c r="C623" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D623">
         <v>26718780</v>
@@ -16712,7 +16710,7 @@
         <v>16</v>
       </c>
       <c r="C624" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D624">
         <v>26719868</v>
@@ -16738,7 +16736,7 @@
         <v>16</v>
       </c>
       <c r="C625" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D625">
         <v>26720927</v>
@@ -16764,7 +16762,7 @@
         <v>16</v>
       </c>
       <c r="C626" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D626">
         <v>26721978</v>
@@ -16790,7 +16788,7 @@
         <v>16</v>
       </c>
       <c r="C627" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D627">
         <v>26723001</v>
@@ -16816,7 +16814,7 @@
         <v>16</v>
       </c>
       <c r="C628" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D628">
         <v>26724161</v>
@@ -16842,7 +16840,7 @@
         <v>16</v>
       </c>
       <c r="C629" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D629">
         <v>26725309</v>
@@ -16868,7 +16866,7 @@
         <v>16</v>
       </c>
       <c r="C630" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D630">
         <v>26726388</v>
@@ -16894,7 +16892,7 @@
         <v>16</v>
       </c>
       <c r="C631" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D631">
         <v>26727435</v>
@@ -16920,7 +16918,7 @@
         <v>16</v>
       </c>
       <c r="C632" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D632">
         <v>26728598</v>
@@ -16946,7 +16944,7 @@
         <v>16</v>
       </c>
       <c r="C633" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D633">
         <v>26729739</v>
@@ -16972,7 +16970,7 @@
         <v>16</v>
       </c>
       <c r="C634" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D634">
         <v>26730854</v>
@@ -16998,7 +16996,7 @@
         <v>16</v>
       </c>
       <c r="C635" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D635">
         <v>26731948</v>
@@ -17024,7 +17022,7 @@
         <v>16</v>
       </c>
       <c r="C636" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D636">
         <v>26733091</v>
@@ -17050,7 +17048,7 @@
         <v>16</v>
       </c>
       <c r="C637" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D637">
         <v>26734215</v>
@@ -17076,7 +17074,7 @@
         <v>16</v>
       </c>
       <c r="C638" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D638">
         <v>26735345</v>
@@ -17102,7 +17100,7 @@
         <v>16</v>
       </c>
       <c r="C639" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D639">
         <v>26736479</v>
@@ -17128,7 +17126,7 @@
         <v>16</v>
       </c>
       <c r="C640" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D640">
         <v>26737655</v>
@@ -17154,7 +17152,7 @@
         <v>16</v>
       </c>
       <c r="C641" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D641">
         <v>26738817</v>
@@ -17180,7 +17178,7 @@
         <v>16</v>
       </c>
       <c r="C642" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D642">
         <v>26739803</v>
@@ -17206,7 +17204,7 @@
         <v>16</v>
       </c>
       <c r="C643" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D643">
         <v>26740788</v>
@@ -17232,7 +17230,7 @@
         <v>16</v>
       </c>
       <c r="C644" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D644">
         <v>26741753</v>
@@ -17258,7 +17256,7 @@
         <v>16</v>
       </c>
       <c r="C645" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D645">
         <v>26742734</v>
@@ -17284,7 +17282,7 @@
         <v>16</v>
       </c>
       <c r="C646" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D646">
         <v>26743747</v>
@@ -17310,7 +17308,7 @@
         <v>16</v>
       </c>
       <c r="C647" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D647">
         <v>26744740</v>
@@ -17336,7 +17334,7 @@
         <v>16</v>
       </c>
       <c r="C648" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D648">
         <v>26745917</v>
@@ -17362,7 +17360,7 @@
         <v>16</v>
       </c>
       <c r="C649" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D649">
         <v>26747095</v>
@@ -17388,7 +17386,7 @@
         <v>16</v>
       </c>
       <c r="C650" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D650">
         <v>26748178</v>
@@ -17414,7 +17412,7 @@
         <v>16</v>
       </c>
       <c r="C651" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D651">
         <v>26749249</v>
@@ -17440,7 +17438,7 @@
         <v>16</v>
       </c>
       <c r="C652" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D652">
         <v>26750319</v>
@@ -17466,7 +17464,7 @@
         <v>16</v>
       </c>
       <c r="C653" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D653">
         <v>26751380</v>
@@ -17492,7 +17490,7 @@
         <v>16</v>
       </c>
       <c r="C654" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D654">
         <v>26752431</v>
@@ -17518,7 +17516,7 @@
         <v>16</v>
       </c>
       <c r="C655" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D655">
         <v>26753480</v>
@@ -17544,7 +17542,7 @@
         <v>16</v>
       </c>
       <c r="C656" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D656">
         <v>26754410</v>
@@ -17570,7 +17568,7 @@
         <v>16</v>
       </c>
       <c r="C657" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D657">
         <v>26755327</v>
@@ -17596,7 +17594,7 @@
         <v>16</v>
       </c>
       <c r="C658" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D658">
         <v>26756334</v>
